--- a/H1299_143B_prot-nucl-quant/acid-hydrolysis/CoulterCounter_data/143B-Nuc-RFP/merged_143B.xlsx
+++ b/H1299_143B_prot-nucl-quant/acid-hydrolysis/CoulterCounter_data/143B-Nuc-RFP/merged_143B.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/H1299_143B_prot-nucl-quant/CoulterCounter_data/143B-Nuc-RFP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/H1299_143B_prot-nucl-quant/acid-hydrolysis/CoulterCounter_data/143B-Nuc-RFP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8BB617-E612-8244-AB6A-11A8133F087D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F27AA31-A66D-4D46-A8EE-225D2C1061E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="22940" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,7 +147,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -221,7 +221,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -564,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1060,6 +1060,12 @@
         <v>4.0204497333333329</v>
       </c>
     </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K12">
+        <f>AVERAGE(K2:K10)</f>
+        <v>5098.333333333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
